--- a/data_preprocessing/donnees_brutes_achats.xlsx
+++ b/data_preprocessing/donnees_brutes_achats.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zahor\Documents\2022-2027_Studies\2024-2027_ECE\S7\Data mining\s7_data_mining\data_preprocessing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17814224-080C-4BCE-B48D-3D510FFB7A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -325,8 +331,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,9 +372,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -387,15 +391,83 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BAE983BD-274F-4ABB-A2D4-87FA51BC3E5E}" name="Table1" displayName="Table1" ref="A1:G52" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:G52" xr:uid="{BAE983BD-274F-4ABB-A2D4-87FA51BC3E5E}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{7AFFC9C7-DE16-4920-A91E-E861F8478C45}" name="TransactionID"/>
+    <tableColumn id="2" xr3:uid="{7856E451-22B1-4517-8A97-F20D233447FE}" name="Produit"/>
+    <tableColumn id="3" xr3:uid="{B0DFFA5C-26E4-408E-A92E-D071186660AB}" name="Quantité"/>
+    <tableColumn id="4" xr3:uid="{84C4FD1B-384D-4E59-B12F-508A7E847F4F}" name="Prix"/>
+    <tableColumn id="5" xr3:uid="{FAF0D4CF-314C-4B7B-BCEC-42105E9CA4C7}" name="Catégorie"/>
+    <tableColumn id="6" xr3:uid="{2A6EBB41-5032-4636-B1EB-8ABE7D500F45}" name="Date"/>
+    <tableColumn id="7" xr3:uid="{4237C6F0-BD88-4F34-84BC-9BE376EF628D}" name="Notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -433,7 +505,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -467,6 +539,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -501,9 +574,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -676,14 +750,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,7 +790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -726,7 +810,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -746,7 +830,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -766,7 +850,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -786,7 +870,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -806,7 +890,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -829,7 +913,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -849,7 +933,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -860,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E9" t="s">
         <v>51</v>
@@ -869,7 +953,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -880,7 +964,7 @@
         <v>5</v>
       </c>
       <c r="D10">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E10" t="s">
         <v>53</v>
@@ -889,7 +973,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -909,7 +993,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -929,7 +1013,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -949,7 +1033,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -969,7 +1053,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -989,7 +1073,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1009,7 +1093,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1029,7 +1113,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1040,7 +1124,7 @@
         <v>5</v>
       </c>
       <c r="D18">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E18" t="s">
         <v>59</v>
@@ -1049,7 +1133,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1069,7 +1153,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1089,7 +1173,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1109,7 +1193,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1120,7 +1204,7 @@
         <v>3</v>
       </c>
       <c r="D22">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E22" t="s">
         <v>61</v>
@@ -1129,7 +1213,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1140,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E23" t="s">
         <v>62</v>
@@ -1149,7 +1233,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1169,7 +1253,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1189,7 +1273,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1209,7 +1293,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1229,7 +1313,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1249,7 +1333,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1269,7 +1353,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1289,7 +1373,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1309,7 +1393,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1326,7 +1410,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1346,7 +1430,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1366,7 +1450,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1386,7 +1470,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1394,7 +1478,7 @@
         <v>14</v>
       </c>
       <c r="D36">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E36" t="s">
         <v>51</v>
@@ -1403,7 +1487,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1420,7 +1504,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1440,7 +1524,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1460,7 +1544,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1480,7 +1564,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1500,7 +1584,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1520,7 +1604,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1540,7 +1624,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1563,7 +1647,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1583,7 +1667,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1606,7 +1690,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1626,7 +1710,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1646,7 +1730,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1666,7 +1750,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1677,7 +1761,7 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="E50" t="s">
         <v>52</v>
@@ -1686,7 +1770,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1700,7 +1784,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1722,5 +1806,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>